--- a/Lexis-GLOBAL/Coredata/RULE_CONFIG.xlsx
+++ b/Lexis-GLOBAL/Coredata/RULE_CONFIG.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adapp\git\AutoAPI_AdminPortal\Lexis-GLOBAL\Coredata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD663309-8BB7-4CCA-9CC5-A9E81E062919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8FF74A-5C79-449E-9F60-CD242DFE18A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RuleConfig_Create" sheetId="1" r:id="rId1"/>
     <sheet name="RuleConfig_View" sheetId="2" r:id="rId2"/>
     <sheet name="RuleConfig_Delete" sheetId="3" r:id="rId3"/>
+    <sheet name="RuleConfig_Update" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="40">
   <si>
     <t>S.No</t>
   </si>
@@ -138,6 +139,15 @@
   </si>
   <si>
     <t>api/v1/RuleConfiguration</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>GET</t>
   </si>
 </sst>
 </file>
@@ -679,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDF1EA8-E211-42D9-9FB8-BA5F50DB0E1C}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -771,7 +781,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>8</v>
@@ -832,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAF2524-FE8D-47FD-900C-A3FF16A4A434}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -924,7 +934,160 @@
         <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>38</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C287439-5E1C-4FA7-80E7-AD55BDBB8611}">
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.08984375" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" customWidth="1"/>
+    <col min="5" max="5" width="19.36328125" customWidth="1"/>
+    <col min="6" max="6" width="19.26953125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" customWidth="1"/>
+    <col min="8" max="8" width="16.7265625" customWidth="1"/>
+    <col min="9" max="9" width="16.26953125" customWidth="1"/>
+    <col min="10" max="10" width="20.7265625" customWidth="1"/>
+    <col min="11" max="11" width="15.7265625" customWidth="1"/>
+    <col min="12" max="12" width="19.6328125" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" customWidth="1"/>
+    <col min="14" max="14" width="23" customWidth="1"/>
+    <col min="17" max="17" width="20.1796875" customWidth="1"/>
+    <col min="18" max="18" width="19.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>8</v>
